--- a/database.xlsx
+++ b/database.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,209 +411,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Another Super Mario 3D</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>Skawo</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>Super Mario 64 DS</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>NDS</v>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>June 26, 2014</v>
+        <v/>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Another_Super_Mario_3D</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Super Mario Star World</v>
-      </c>
-      <c r="B3" t="str">
-        <v>SKELUX</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D3" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Super_Mario_Star_World</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Super Mario 64 DS 2: The Next Journey</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Splatterboy</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D4" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="G4" t="str">
-        <v>August 26, 2018</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Super_Mario_64_DS_2:_The_Next_Journey</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Excerpt from Super Mario 256</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Josh65536</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D5" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="G5" t="str">
-        <v>December 15, 2018</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Excerpt_from_Super_Mario_256</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Super Mario 64 Shining Stars DS</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Gota7</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D6" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="G6" t="str">
-        <v>June 2, 2022</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Super_Mario_64_Shining_Stars_DS</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Super Mario Journey Lane DS</v>
-      </c>
-      <c r="B7" t="str">
-        <v>ShaneMGD</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D7" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Super_Mario_Journey_Lane_DS</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Mario's Star Quest</v>
-      </c>
-      <c r="B8" t="str">
-        <v>oreo</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D8" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="G8" t="str">
-        <v>August 11, 2020</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Mario%27s_Star_Quest</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Mario's Holiday</v>
-      </c>
-      <c r="B9" t="str">
-        <v>SKELUX</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D9" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="G9" t="str">
-        <v>January 30, 2018</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Mario%27s_Holiday</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>Super Mario 64 DS with FLUDD</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Modified</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Super Mario 64 DS</v>
-      </c>
-      <c r="D10" t="str">
-        <v>NDS</v>
-      </c>
-      <c r="G10" t="str" xml:space="preserve">
-        <v xml:space="preserve">v1: December 11, 2018
-v2: May 19, 2020</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="str">
-        <v>https://mario64hacks.fandom.com/wiki/Super_Mario_64_DS_with_FLUDD</v>
+        <v>http://www.arcadecollecting.com/hacks/bagman/</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,36 +411,5013 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>cd sonic</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>treman2029</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>2020-08-15</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Sonic Robo Blast 2</v>
       </c>
       <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
+        <v>PC</v>
       </c>
       <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="b">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://gamebanana.com/projects/35579</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>32 Spawns Initiative</v>
+      </c>
+      <c r="B3" t="str">
+        <v>s0nought</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2019-09-28</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://gamebanana.com/projects/35480</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Half-Life 2: Perfected</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Xven</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2019-01-30</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I4" t="str">
+        <v>https://gamebanana.com/projects/35414</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>A SFM portfolio.</v>
+      </c>
+      <c r="B5" t="str">
+        <v>vnnfier2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2020-07-25</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Source Filmmaker</v>
+      </c>
+      <c r="E5" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I5" t="str">
+        <v>https://gamebanana.com/projects/35574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Super Mario Maker Ultimate</v>
+      </c>
+      <c r="B6" t="str">
+        <v>A Kramer Randomness</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2020-03-28</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Super Mario Maker</v>
+      </c>
+      <c r="E6" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I6" t="str">
+        <v>https://gamebanana.com/projects/35535</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Sonic 1 Sonic remake</v>
+      </c>
+      <c r="B7" t="str">
+        <v>The Mania Fan</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2020-07-28</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E7" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I7" t="str">
+        <v>https://gamebanana.com/projects/35575</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>STAGES FOR EVERYONE!</v>
+      </c>
+      <c r="B8" t="str">
+        <v>JohnDaGoogly</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2020-07-09</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Super Smash Bros. Crusade</v>
+      </c>
+      <c r="E8" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I8" t="str">
+        <v>https://gamebanana.com/projects/35568</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Annie</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Serge Jaeken</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2018-01-30</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Doom II</v>
+      </c>
+      <c r="E9" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Partial Conversion</v>
+      </c>
+      <c r="I9" t="str">
+        <v>https://gamebanana.com/projects/35276</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ze_minecraft_temple_2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Vedeshka</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2020-07-24</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E10" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Map</v>
+      </c>
+      <c r="I10" t="str">
+        <v>https://gamebanana.com/projects/35573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Sonic The Hedgehog 2 (The Mania Fan)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>The Mania Fan</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2019-12-13</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Sonic Chaos</v>
+      </c>
+      <c r="E11" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I11" t="str">
+        <v>https://gamebanana.com/projects/35501</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Breath of the Wild: Second Wind</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CEObrainz</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2019-08-14</v>
+      </c>
+      <c r="D12" t="str">
+        <v>The Legend of Zelda: Breath of the Wild (WiiU)</v>
+      </c>
+      <c r="E12" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I12" t="str">
+        <v>https://gamebanana.com/projects/35468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Project Golden Goddess</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Jeremy King</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2019-06-16</v>
+      </c>
+      <c r="D13" t="str">
+        <v>The Legend of Zelda: Breath of the Wild (WiiU)</v>
+      </c>
+      <c r="E13" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I13" t="str">
+        <v>https://gamebanana.com/projects/35453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mario &amp; Luigi: Superstar Saga Game Style</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kibolino</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2020-06-10</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Super Mario Maker for Nintendo 3DS</v>
+      </c>
+      <c r="E14" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Game Style</v>
+      </c>
+      <c r="I14" t="str">
+        <v>https://gamebanana.com/projects/35559</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PUBG Map - playground_island</v>
+      </c>
+      <c r="B15" t="str">
+        <v>norbee16</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2018-02-13</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E15" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I15" t="str">
+        <v>https://gamebanana.com/projects/35282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>The Heroes Project</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Kamanira</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2020-06-05</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Sonic Riders (GameCube)</v>
+      </c>
+      <c r="E16" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I16" t="str">
+        <v>https://gamebanana.com/projects/35558</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Super Smash Bros. Ultimate: Project MASTERS</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TRA2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2020-07-31</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Super Smash Bros. Ultimate</v>
+      </c>
+      <c r="E17" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Gameplay Modifier</v>
+      </c>
+      <c r="I17" t="str">
+        <v>https://gamebanana.com/projects/35577</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>White mage (full charcter mod)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Deusnowa</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2019-03-26</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Mario Kart Wii</v>
+      </c>
+      <c r="E18" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Custom Tracks</v>
+      </c>
+      <c r="I18" t="str">
+        <v>https://gamebanana.com/projects/35426</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>SRB1 But it sucks</v>
+      </c>
+      <c r="B19" t="str">
+        <v>JanYT</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2020-06-14</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Sonic Robo Blast 2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I19" t="str">
+        <v>https://gamebanana.com/projects/35561</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>The Man Behind The Slaughter Project</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Super_Noob1101</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2020-05-22</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Super Smash Bros. Crusade</v>
+      </c>
+      <c r="E20" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I20" t="str">
+        <v>https://gamebanana.com/projects/35552</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Super Smash Bros. Nebula</v>
+      </c>
+      <c r="B21" t="str">
+        <v>The Kitten of Power</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2020-08-17</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Super Smash Bros. Brawl</v>
+      </c>
+      <c r="E21" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Gameplay Overhaul</v>
+      </c>
+      <c r="I21" t="str">
+        <v>https://gamebanana.com/projects/35580</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Project Mania</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Jackson Mean</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2019-01-06</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Open Sonic</v>
+      </c>
+      <c r="E22" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I22" t="str">
+        <v>https://gamebanana.com/projects/35400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Metal Gear Solid 2 Big Shell Remake CS:S</v>
+      </c>
+      <c r="B23" t="str">
+        <v>D.B Creation</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2012-07-07</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E23" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I23" t="str">
+        <v>https://gamebanana.com/projects/34305</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Movie Mania(Movie sonic in Mania)</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Devdede</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2020-05-21</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E24" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I24" t="str">
+        <v>https://gamebanana.com/projects/35551</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Bounce Tales 1.9.3 With Power Stones Compatibility</v>
+      </c>
+      <c r="B25" t="str">
+        <v>gui7814</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2019-12-29</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Sonic Boll</v>
+      </c>
+      <c r="E25" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I25" t="str">
+        <v>https://gamebanana.com/projects/35506</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Half-Life: Second Encounter</v>
+      </c>
+      <c r="B26" t="str">
+        <v>WackyMoon</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2019-06-15</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Half-Life</v>
+      </c>
+      <c r="E26" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Modification</v>
+      </c>
+      <c r="I26" t="str">
+        <v>https://gamebanana.com/projects/35452</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>WhiteDragon models collection</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Ezequiel-TM</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2017-12-25</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Half-Life</v>
+      </c>
+      <c r="E27" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Modification</v>
+      </c>
+      <c r="I27" t="str">
+        <v>https://gamebanana.com/projects/35259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Open Source Baldi Random Level Generator Project</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CyndaquilDAC</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2020-04-13</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Baldi's Basics</v>
+      </c>
+      <c r="E28" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Tools</v>
+      </c>
+      <c r="I28" t="str">
+        <v>https://gamebanana.com/projects/35541</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Project "Old Grandpa"</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Admer456</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2016-10-21</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Garry's Mod</v>
+      </c>
+      <c r="E29" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I29" t="str">
+        <v>https://gamebanana.com/projects/35122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>vsauce</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Mark Tven</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2020-03-09</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E30" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I30" t="str">
+        <v>https://gamebanana.com/projects/35526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Hamlet</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Bov</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2010-07-25</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E31" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I31" t="str">
+        <v>https://gamebanana.com/projects/33720</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Cabeza de pija. (Mod cancelled)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Aled1918</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2018-07-10</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Cuphead</v>
+      </c>
+      <c r="E32" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I32" t="str">
+        <v>https://gamebanana.com/projects/35348</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Cleany City 17 textures</v>
+      </c>
+      <c r="B33" t="str">
+        <v>OneFreeman</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2018-01-08</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I33" t="str">
+        <v>https://gamebanana.com/projects/35265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Sonic 3 Remastered</v>
+      </c>
+      <c r="B34" t="str">
+        <v>SonicFan67</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2020-03-14</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E34" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I34" t="str">
+        <v>https://gamebanana.com/projects/35532</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Countryside v2</v>
+      </c>
+      <c r="B35" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2009-04-07</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I35" t="str">
+        <v>https://gamebanana.com/projects/23367</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>EvilleCrime</v>
+      </c>
+      <c r="B36" t="str">
+        <v>JuniorMX</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2017-04-08</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E36" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I36" t="str">
+        <v>https://gamebanana.com/projects/35172</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Ancient Recolor</v>
+      </c>
+      <c r="B37" t="str">
+        <v>SDarkMagic</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2020-04-09</v>
+      </c>
+      <c r="D37" t="str">
+        <v>The Legend of Zelda: Breath of the Wild (Switch)</v>
+      </c>
+      <c r="E37" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I37" t="str">
+        <v>https://gamebanana.com/projects/35539</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Prison Life</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Chegboy</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2020-04-06</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E38" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I38" t="str">
+        <v>https://gamebanana.com/projects/35538</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Sonic Mania Sega Genesis Project</v>
+      </c>
+      <c r="B39" t="str">
+        <v>KialCurry</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2020-03-14</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E39" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I39" t="str">
+        <v>https://gamebanana.com/projects/35531</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Lego Batman: Rescored</v>
+      </c>
+      <c r="B40" t="str">
+        <v>SirYodaJedi</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2020-04-27</v>
+      </c>
+      <c r="D40" t="str">
+        <v>LEGO Batman: The Video Game</v>
+      </c>
+      <c r="E40" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I40" t="str">
+        <v>https://gamebanana.com/projects/35546</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Modified Weapons and Players</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Doomownedslayer</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2020-03-21</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E41" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Skins</v>
+      </c>
+      <c r="I41" t="str">
+        <v>https://gamebanana.com/projects/35534</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Project Fox</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Armasher5872</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2020-03-31</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Super Smash Bros. Ultimate</v>
+      </c>
+      <c r="E42" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I42" t="str">
+        <v>https://gamebanana.com/projects/35536</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>sonic cd styled tails</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Professor_Eevee_YT</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2020-03-12</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Sonic Robo Blast 2</v>
+      </c>
+      <c r="E43" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I43" t="str">
+        <v>https://gamebanana.com/projects/35529</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Symbionica</v>
+      </c>
+      <c r="B44" t="str">
+        <v>WackyMoon</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2019-01-02</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E44" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I44" t="str">
+        <v>https://gamebanana.com/projects/35398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>C-Type Ultimate!</v>
+      </c>
+      <c r="B45" t="str">
+        <v>HeckleJack</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2020-04-28</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Super Smash Bros. Ultimate</v>
+      </c>
+      <c r="E45" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Gameplay Modifier</v>
+      </c>
+      <c r="I45" t="str">
+        <v>https://gamebanana.com/projects/35547</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Symbionic: System Logs</v>
+      </c>
+      <c r="B46" t="str">
+        <v>WackyMoon</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2019-09-22</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Portal</v>
+      </c>
+      <c r="E46" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I46" t="str">
+        <v>https://gamebanana.com/projects/35479</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Notarged 2</v>
+      </c>
+      <c r="B47" t="str">
+        <v>LordOf Xen</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2018-05-08</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E47" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I47" t="str">
+        <v>https://gamebanana.com/projects/35319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Tanic the hedgehog over sonic</v>
+      </c>
+      <c r="B48" t="str">
+        <v>BlitzzSolar</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2020-02-24</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E48" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I48" t="str">
+        <v>https://gamebanana.com/projects/35522</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>MMOD: Tactical [April Update]</v>
+      </c>
+      <c r="B49" t="str">
+        <v>L U D E X</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2019-04-16</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Half-Life 2: MMod</v>
+      </c>
+      <c r="E49" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I49" t="str">
+        <v>https://gamebanana.com/projects/35436</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Tropical_fever v2</v>
+      </c>
+      <c r="B50" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2012-10-28</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Garry's Mod</v>
+      </c>
+      <c r="E50" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I50" t="str">
+        <v>https://gamebanana.com/projects/34443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>fy_strongholds_unlimited</v>
+      </c>
+      <c r="B51" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2012-11-04</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E51" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Mapping</v>
+      </c>
+      <c r="I51" t="str">
+        <v>https://gamebanana.com/projects/34452</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Tropical Fever</v>
+      </c>
+      <c r="B52" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2009-05-09</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Garry's Mod</v>
+      </c>
+      <c r="E52" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I52" t="str">
+        <v>https://gamebanana.com/projects/23569</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Joke Skins</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Doomownedslayer</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2019-03-24</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E53" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Skins</v>
+      </c>
+      <c r="I53" t="str">
+        <v>https://gamebanana.com/projects/35423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>de_highrise</v>
+      </c>
+      <c r="B54" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2009-01-04</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E54" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Mapping</v>
+      </c>
+      <c r="I54" t="str">
+        <v>https://gamebanana.com/projects/22495</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>fy_quad</v>
+      </c>
+      <c r="B55" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2009-08-16</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E55" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Mapping</v>
+      </c>
+      <c r="I55" t="str">
+        <v>https://gamebanana.com/projects/32535</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>de_hilltop</v>
+      </c>
+      <c r="B56" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2012-11-04</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E56" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Mapping</v>
+      </c>
+      <c r="I56" t="str">
+        <v>https://gamebanana.com/projects/34450</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Skylife</v>
+      </c>
+      <c r="B57" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2017-09-18</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Half-Life 2</v>
+      </c>
+      <c r="E57" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I57" t="str">
+        <v>https://gamebanana.com/projects/35218</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>fy_asson</v>
+      </c>
+      <c r="B58" t="str">
+        <v>X-tr3m3r</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2012-11-04</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E58" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Mapping</v>
+      </c>
+      <c r="I58" t="str">
+        <v>https://gamebanana.com/projects/34454</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>ze_crossfire</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Pirucho XP-007</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2020-04-21</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E59" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I59" t="str">
+        <v>https://gamebanana.com/projects/35544</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Sonic Movie Mania (Coming Soon</v>
+      </c>
+      <c r="B60" t="str">
+        <v>CanecaBr</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2020-02-23</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E60" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I60" t="str">
+        <v>https://gamebanana.com/projects/35518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Maronic:Level Pack and More Characters! [1.9.2]</v>
+      </c>
+      <c r="B61" t="str">
+        <v>gui7814</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2020-01-31</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Sonic Boll</v>
+      </c>
+      <c r="E61" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I61" t="str">
+        <v>https://gamebanana.com/projects/35513</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Voice Manager [JBE,Public,etc]</v>
+      </c>
+      <c r="B62" t="str">
+        <v>axion</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2020-03-09</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E62" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I62" t="str">
+        <v>https://gamebanana.com/projects/35527</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Pinnapple Migraine Mod</v>
+      </c>
+      <c r="B63" t="str">
+        <v>emanvidmaker</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2020-02-17</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Pizza Tower</v>
+      </c>
+      <c r="E63" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I63" t="str">
+        <v>https://gamebanana.com/projects/35517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>turok,call of duty,perfect dark maps</v>
+      </c>
+      <c r="B64" t="str">
+        <v>slendy-kore</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2019-11-26</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E64" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I64" t="str">
+        <v>https://gamebanana.com/projects/35495</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>The Wurtzman</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Engie Boy 6000</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2020-02-15</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E65" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Sound Packs</v>
+      </c>
+      <c r="I65" t="str">
+        <v>https://gamebanana.com/projects/35516</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Sonic Heroes 2</v>
+      </c>
+      <c r="B66" t="str">
+        <v>GatismoPixel</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2019-04-10</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Sonic Heroes</v>
+      </c>
+      <c r="E66" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I66" t="str">
+        <v>https://gamebanana.com/projects/35432</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Sonic Generations Repainted</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Rusty Jimjob</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2018-02-22</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Sonic Generations</v>
+      </c>
+      <c r="E67" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I67" t="str">
+        <v>https://gamebanana.com/projects/35287</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>mg_moba_#</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Ghost1300126</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2019-12-01</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E68" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Minigames</v>
+      </c>
+      <c r="I68" t="str">
+        <v>https://gamebanana.com/projects/35498</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>ba_select_#</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Ghost1300126</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2019-11-14</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E69" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Jailbreak</v>
+      </c>
+      <c r="I69" t="str">
+        <v>https://gamebanana.com/projects/35491</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>CHAO5: The Unbalance Mod Returns!</v>
+      </c>
+      <c r="B70" t="str">
+        <v>TheOmniDoctor</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2019-01-27</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Super Smash Bros. Ultimate</v>
+      </c>
+      <c r="E70" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I70" t="str">
+        <v>https://gamebanana.com/projects/35412</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>mg_flush</v>
+      </c>
+      <c r="B71" t="str">
+        <v>HeXi</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2019-11-23</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E71" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Map</v>
+      </c>
+      <c r="I71" t="str">
+        <v>https://gamebanana.com/projects/35494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Shovel Knight in Sonic Boll project</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Somethingaboutboxes</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2020-01-30</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Sonic Boll</v>
+      </c>
+      <c r="E72" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I72" t="str">
+        <v>https://gamebanana.com/projects/35511</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>SWE1R HD Upgrade Pack</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Jeremy King</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2019-06-25</v>
+      </c>
+      <c r="D73" t="str">
+        <v>STAR WARS Episode I Racer</v>
+      </c>
+      <c r="E73" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G73" t="str">
+        <v>HD Mods</v>
+      </c>
+      <c r="I73" t="str">
+        <v>https://gamebanana.com/projects/35456</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>L4D1 Replacement Mod</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Thugs201 89</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2020-03-10</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Left 4 Dead 2</v>
+      </c>
+      <c r="E74" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I74" t="str">
+        <v>https://gamebanana.com/projects/35528</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>mg_gh_winter_course</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Gede.hamster</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2019-12-28</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E75" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Map</v>
+      </c>
+      <c r="I75" t="str">
+        <v>https://gamebanana.com/projects/35505</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Kim Possible Mania</v>
+      </c>
+      <c r="B76" t="str">
+        <v>SPM1Games</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2020-02-24</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E76" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I76" t="str">
+        <v>https://gamebanana.com/projects/35521</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Xenoblade Chronicles Colony 9 Map</v>
+      </c>
+      <c r="B77" t="str">
+        <v>obodobear</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2017-04-07</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E77" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I77" t="str">
+        <v>https://gamebanana.com/projects/35171</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>progressing course</v>
+      </c>
+      <c r="B78" t="str">
+        <v>HeXi</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2019-11-23</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E78" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Map</v>
+      </c>
+      <c r="I78" t="str">
+        <v>https://gamebanana.com/projects/35493</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Tf2 Soldier Announcer</v>
+      </c>
+      <c r="B79" t="str">
+        <v>obodobear</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2017-04-12</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E79" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I79" t="str">
+        <v>https://gamebanana.com/projects/35173</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Mario Plamb</v>
+      </c>
+      <c r="B80" t="str">
+        <v>gui7814</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2019-12-31</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Sonic Boll</v>
+      </c>
+      <c r="E80" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I80" t="str">
+        <v>https://gamebanana.com/projects/35507</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>de_dust2_space</v>
+      </c>
+      <c r="B81" t="str">
+        <v>tonline_kms65</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2020-01-07</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E81" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Mapping</v>
+      </c>
+      <c r="I81" t="str">
+        <v>https://gamebanana.com/projects/35508</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Counter-Strike - Deleted &amp; Beta Maps Collection</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Ezequiel-TM</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2018-11-09</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E82" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I82" t="str">
+        <v>https://gamebanana.com/projects/35382</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>06 Conversion Mod</v>
+      </c>
+      <c r="B83" t="str">
+        <v>SuperHyperDan</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2019-10-15</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Sonic Adventure DX (2004)</v>
+      </c>
+      <c r="E83" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Conversion Mod</v>
+      </c>
+      <c r="I83" t="str">
+        <v>https://gamebanana.com/projects/35487</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Plants VS. BonziBUDDY</v>
+      </c>
+      <c r="B84" t="str">
+        <v>bob_smith</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2018-07-28</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Plants vs. Zombies</v>
+      </c>
+      <c r="E84" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I84" t="str">
+        <v>https://gamebanana.com/projects/35353</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Sonic Heroes DX</v>
+      </c>
+      <c r="B85" t="str">
+        <v>TriNic</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2019-05-11</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Sonic Heroes</v>
+      </c>
+      <c r="E85" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I85" t="str">
+        <v>https://gamebanana.com/projects/35443</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Smash Bros. Ultimate Minus</v>
+      </c>
+      <c r="B86" t="str">
+        <v>coolzie</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2019-05-29</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Super Smash Bros. Ultimate</v>
+      </c>
+      <c r="E86" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Gameplay Modifier</v>
+      </c>
+      <c r="I86" t="str">
+        <v>https://gamebanana.com/projects/35447</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>"Official" Weapon Pack 2</v>
+      </c>
+      <c r="B87" t="str">
+        <v>SlaYeR5530</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2019-09-10</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E87" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Skins</v>
+      </c>
+      <c r="I87" t="str">
+        <v>https://gamebanana.com/projects/35475</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>My first Cs 1.6 map.(On Hammer Editor)</v>
+      </c>
+      <c r="B88" t="str">
+        <v>GAbeTHeBAbe</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2019-06-11</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E88" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I88" t="str">
+        <v>https://gamebanana.com/projects/35451</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>HD Texture Mod</v>
+      </c>
+      <c r="B89" t="str">
+        <v>JuarbeAbraham</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2019-04-29</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Freedom Fighters</v>
+      </c>
+      <c r="E89" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I89" t="str">
+        <v>https://gamebanana.com/projects/35441</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>The Peter Puzzle</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Peter Wiggins</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2019-02-07</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Super Mario Odyssey</v>
+      </c>
+      <c r="E90" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I90" t="str">
+        <v>https://gamebanana.com/projects/35416</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Jason Mania Plus</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Unit-M931</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2019-09-10</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E91" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I91" t="str">
+        <v>https://gamebanana.com/projects/35474</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>The Useful Pocketan</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Infinte</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2019-07-02</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E92" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I92" t="str">
+        <v>https://gamebanana.com/projects/35458</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Baldi's Insane Mode</v>
+      </c>
+      <c r="B93" t="str">
+        <v>SMFTWKMMFTLWAN</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2019-04-01</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Baldi's Basics</v>
+      </c>
+      <c r="E93" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I93" t="str">
+        <v>https://gamebanana.com/projects/35427</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>CS GO Skins For CS 1.6</v>
+      </c>
+      <c r="B94" t="str">
+        <v>!SharKz</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2019-04-07</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E94" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Skins</v>
+      </c>
+      <c r="I94" t="str">
+        <v>https://gamebanana.com/projects/35430</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Counter Strike Modernization</v>
+      </c>
+      <c r="B95" t="str">
+        <v>DeanCSGO</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2019-05-20</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E95" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I95" t="str">
+        <v>https://gamebanana.com/projects/35445</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Powercore</v>
+      </c>
+      <c r="B96" t="str">
+        <v>ChaosWeeb</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2019-04-11</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Sonic Heroes</v>
+      </c>
+      <c r="E96" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I96" t="str">
+        <v>https://gamebanana.com/projects/35433</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Zonic Generations</v>
+      </c>
+      <c r="B97" t="str">
+        <v>NeonNingen!?</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2019-02-23</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Sonic Generations</v>
+      </c>
+      <c r="E97" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I97" t="str">
+        <v>https://gamebanana.com/projects/35420</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>FarCry reloaded</v>
+      </c>
+      <c r="B98" t="str">
+        <v>roadiereloaded</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2019-08-18</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Crysis</v>
+      </c>
+      <c r="E98" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Singleplayer Map</v>
+      </c>
+      <c r="I98" t="str">
+        <v>https://gamebanana.com/projects/35469</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Hotline Miami Theme For TF2</v>
+      </c>
+      <c r="B99" t="str">
+        <v>UghhhVinyl</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2019-08-20</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E99" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I99" t="str">
+        <v>https://gamebanana.com/projects/35470</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Modding DIRECT also with odyssey mods</v>
+      </c>
+      <c r="B100" t="str">
+        <v>PandaHexCode</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2019-07-13</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Super Mario Odyssey</v>
+      </c>
+      <c r="E100" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I100" t="str">
+        <v>https://gamebanana.com/projects/35462</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Re-curse</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Rest in Misery</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2017-08-10</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E101" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Horror map</v>
+      </c>
+      <c r="I101" t="str">
+        <v>https://gamebanana.com/projects/35207</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>'Ey!</v>
+      </c>
+      <c r="B102" t="str">
+        <v>RetrosWave</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2019-05-12</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Source Filmmaker</v>
+      </c>
+      <c r="E102" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I102" t="str">
+        <v>https://gamebanana.com/projects/35444</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Counter Strike: Strategic Offensive</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Thunderkeil</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2018-11-05</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E103" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I103" t="str">
+        <v>https://gamebanana.com/projects/35381</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>CS:GO Mods for Feb/March 2k19</v>
+      </c>
+      <c r="B104" t="str">
+        <v>TheZombieDon</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2019-02-19</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E104" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I104" t="str">
+        <v>https://gamebanana.com/projects/35418</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>[HD] Counter-Strike 1.6 Skins [2019]</v>
+      </c>
+      <c r="B105" t="str">
+        <v>mutan</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2019-02-11</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E105" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Skins</v>
+      </c>
+      <c r="I105" t="str">
+        <v>https://gamebanana.com/projects/35417</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>ze_paris_l4d2</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Pirucho XP-007</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2019-09-18</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E106" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I106" t="str">
+        <v>https://gamebanana.com/projects/35477</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>CSS Maps for CS 1.6</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Tatu Eugen</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2015-08-25</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E107" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I107" t="str">
+        <v>https://gamebanana.com/projects/35002</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>L4D style weapon package</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Weiss Schnee</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2019-09-19</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E108" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Skins</v>
+      </c>
+      <c r="I108" t="str">
+        <v>https://gamebanana.com/projects/35478</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Utopia at Stake</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Admer456</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2019-06-21</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Half-Life</v>
+      </c>
+      <c r="E109" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Modification</v>
+      </c>
+      <c r="I109" t="str">
+        <v>https://gamebanana.com/projects/35454</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Super Funny Odyssey (BETA)</v>
+      </c>
+      <c r="B110" t="str">
+        <v>PandaHexCode</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2019-01-21</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Super Mario Odyssey</v>
+      </c>
+      <c r="E110" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I110" t="str">
+        <v>https://gamebanana.com/projects/35409</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Splatoon Mania PLUS</v>
+      </c>
+      <c r="B111" t="str">
+        <v>dexiedoo</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2018-06-10</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E111" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I111" t="str">
+        <v>https://gamebanana.com/projects/35339</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Minus World Basics</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Mat64</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2018-07-30</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Baldi's Basics</v>
+      </c>
+      <c r="E112" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I112" t="str">
+        <v>https://gamebanana.com/projects/35354</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Super Mario 64! (Recreation)</v>
+      </c>
+      <c r="B113" t="str">
+        <v>GRAnimated</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2018-12-22</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Super Mario Odyssey</v>
+      </c>
+      <c r="E113" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I113" t="str">
+        <v>https://gamebanana.com/projects/35395</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Posters For The World</v>
+      </c>
+      <c r="B114" t="str">
+        <v>TheNegativeOne</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2018-08-12</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Source Filmmaker</v>
+      </c>
+      <c r="E114" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I114" t="str">
+        <v>https://gamebanana.com/projects/35362</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>ze_timesplitters_v1</v>
+      </c>
+      <c r="B115" t="str">
+        <v>-Reks-</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2018-11-26</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E115" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I115" t="str">
+        <v>https://gamebanana.com/projects/35388</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>LHC CMS</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Xblah</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2008-10-08</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E116" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I116" t="str">
+        <v>https://gamebanana.com/projects/21770</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Sonic 06 Team</v>
+      </c>
+      <c r="B117" t="str">
+        <v>TheChaosLP</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2018-06-09</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E117" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I117" t="str">
+        <v>https://gamebanana.com/projects/35338</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Errant Ghosts All in One</v>
+      </c>
+      <c r="B118" t="str">
+        <v>D@RKN3SS</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2018-09-16</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E118" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I118" t="str">
+        <v>https://gamebanana.com/projects/35365</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Sonic Mania Plus: Serena Mix</v>
+      </c>
+      <c r="B119" t="str">
+        <v>SonicMania321</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2018-07-21</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E119" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I119" t="str">
+        <v>https://gamebanana.com/projects/35351</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Undertale 2 (Mod)</v>
+      </c>
+      <c r="B120" t="str">
+        <v>JohnGL4</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2019-01-17</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Deltarune</v>
+      </c>
+      <c r="E120" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I120" t="str">
+        <v>https://gamebanana.com/projects/35404</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Algodoo</v>
+      </c>
+      <c r="B121" t="str">
+        <v>loverminecraft</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2018-08-03</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Algodoo</v>
+      </c>
+      <c r="E121" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I121" t="str">
+        <v>https://gamebanana.com/projects/35357</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>SMASH-FEST</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Screen KO</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2018-03-28</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E122" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G122" t="str">
+        <v>All-In-One</v>
+      </c>
+      <c r="I122" t="str">
+        <v>https://gamebanana.com/projects/35299</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Parappa Mania</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Wowie its Noah</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2018-07-23</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E123" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I123" t="str">
+        <v>https://gamebanana.com/projects/35352</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Shantae: Half-Genie Hero: Voices and SFX</v>
+      </c>
+      <c r="B124" t="str">
+        <v>hyperhunt621</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2018-08-25</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E124" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I124" t="str">
+        <v>https://gamebanana.com/projects/35363</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Stargate Network</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Cbast</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2018-12-04</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Unreal Engine 4</v>
+      </c>
+      <c r="E125" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I125" t="str">
+        <v>https://gamebanana.com/projects/35391</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>HD Blue Shift Ultimate pack</v>
+      </c>
+      <c r="B126" t="str">
+        <v>OneFreeman</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2018-02-27</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Half-Life: Blue Shift</v>
+      </c>
+      <c r="E126" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I126" t="str">
+        <v>https://gamebanana.com/projects/35290</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Teen Titans GO! Minecraft Map</v>
+      </c>
+      <c r="B127" t="str">
+        <v>KirbyKid Johnson</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2018-06-14</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Minecraft</v>
+      </c>
+      <c r="E127" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I127" t="str">
+        <v>https://gamebanana.com/projects/35341</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>IkuTronHD's Mario Kart Wii Circuits</v>
+      </c>
+      <c r="B128" t="str">
+        <v>IkuTronHD</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2018-12-18</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Mario Kart Wii</v>
+      </c>
+      <c r="E128" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Custom Tracks</v>
+      </c>
+      <c r="I128" t="str">
+        <v>https://gamebanana.com/projects/35394</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Neon Mania</v>
+      </c>
+      <c r="B129" t="str">
+        <v>MegAmi</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2018-11-23</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E129" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I129" t="str">
+        <v>https://gamebanana.com/projects/35387</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>coop_minecraft</v>
+      </c>
+      <c r="B130" t="str">
+        <v>andrept4</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2019-01-27</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E130" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Map</v>
+      </c>
+      <c r="I130" t="str">
+        <v>https://gamebanana.com/projects/35413</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>cs_alley2 ~ Remake</v>
+      </c>
+      <c r="B131" t="str">
+        <v>REBELVODKA</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2017-08-02</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E131" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I131" t="str">
+        <v>https://gamebanana.com/projects/35203</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>The Amy Project: Playable CAS Amy in SCVI</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Koenji</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2018-11-04</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Soulcalibur VI</v>
+      </c>
+      <c r="E132" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I132" t="str">
+        <v>https://gamebanana.com/projects/35380</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>cs_city_olympix</v>
+      </c>
+      <c r="B133" t="str">
+        <v>JMXremix</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2018-12-28</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E133" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I133" t="str">
+        <v>https://gamebanana.com/projects/35397</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>city2</v>
+      </c>
+      <c r="B134" t="str">
+        <v>REBELVODKA</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2018-09-06</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E134" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Maps</v>
+      </c>
+      <c r="I134" t="str">
+        <v>https://gamebanana.com/projects/35364</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Force client .dll download (Steam + Non-Steam)</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Sneaky.amxx</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2018-11-16</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E135" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I135" t="str">
+        <v>https://gamebanana.com/projects/35384</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Remixed Soundtrack</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Harder</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2018-05-16</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Sonic R</v>
+      </c>
+      <c r="E136" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G136" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I136" t="str">
+        <v>https://gamebanana.com/projects/35324</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>[Android / ios] Crate Opener Simulator for TF2</v>
+      </c>
+      <c r="B137" t="str">
+        <v>iceazura</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2018-02-24</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E137" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I137" t="str">
+        <v>https://gamebanana.com/projects/35289</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>tf2 apple music tanks for mvm</v>
+      </c>
+      <c r="B138" t="str">
+        <v>captainpunch</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2018-01-21</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E138" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G138" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I138" t="str">
+        <v>https://gamebanana.com/projects/35273</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Molten Iron skin</v>
+      </c>
+      <c r="B139" t="str">
+        <v>BreadBucket</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2018-01-29</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E139" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I139" t="str">
+        <v>https://gamebanana.com/projects/35275</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>The Walking Zed</v>
+      </c>
+      <c r="B140" t="str">
+        <v>CCL sama</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2016-01-09</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Contagion</v>
+      </c>
+      <c r="E140" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I140" t="str">
+        <v>https://gamebanana.com/projects/35042</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Mania Mix</v>
+      </c>
+      <c r="B141" t="str">
+        <v>FazHogGaming</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2018-05-16</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E141" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I141" t="str">
+        <v>https://gamebanana.com/projects/35326</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Project Wintermaze_2016 (map)</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Dr.ParadoX</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2017-09-09</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E142" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G142" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I142" t="str">
+        <v>https://gamebanana.com/projects/35216</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>HQ STUDIOZ</v>
+      </c>
+      <c r="B143" t="str">
+        <v>GOKULRAJ</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2018-03-19</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Cricket 2007</v>
+      </c>
+      <c r="E143" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G143" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I143" t="str">
+        <v>https://gamebanana.com/projects/35296</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Airsoft-Skrike - MOD</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Goodfishman</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2018-04-03</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E144" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G144" t="str">
+        <v>Mods</v>
+      </c>
+      <c r="I144" t="str">
+        <v>https://gamebanana.com/projects/35302</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Past Super Smash Bros. Skins</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Viper570</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2018-06-03</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E145" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G145" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I145" t="str">
+        <v>https://gamebanana.com/projects/35334</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>cs 1.6 with skin gun selector</v>
+      </c>
+      <c r="B146" t="str">
+        <v>michael.araghian</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2018-06-03</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E146" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G146" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I146" t="str">
+        <v>https://gamebanana.com/projects/35333</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Jedi Knight SP pack map</v>
+      </c>
+      <c r="B147" t="str">
+        <v>REBELVODKA</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2018-03-09</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Half-Life</v>
+      </c>
+      <c r="E147" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G147" t="str">
+        <v>Modification</v>
+      </c>
+      <c r="I147" t="str">
+        <v>https://gamebanana.com/projects/35293</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Hq overhaul</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Lola_co</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2018-01-07</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E148" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G148" t="str">
+        <v>All-In-One</v>
+      </c>
+      <c r="I148" t="str">
+        <v>https://gamebanana.com/projects/35264</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Bit . Trip Editor</v>
+      </c>
+      <c r="B149" t="str">
+        <v>donnaken15</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2018-05-26</v>
+      </c>
+      <c r="D149" t="str">
+        <v>BIT.TRIP BEAT</v>
+      </c>
+      <c r="E149" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I149" t="str">
+        <v>https://gamebanana.com/projects/35330</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Dragon Ball Super M.U.G.E.N JUS</v>
+      </c>
+      <c r="B150" t="str">
+        <v>SonGokuUltraInstinct</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2018-06-04</v>
+      </c>
+      <c r="D150" t="str">
+        <v>M.U.G.E.N</v>
+      </c>
+      <c r="E150" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G150" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I150" t="str">
+        <v>https://gamebanana.com/projects/35335</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>BSP Toolkit</v>
+      </c>
+      <c r="B151" t="str">
+        <v>RadCraftplay2</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2017-08-12</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Source Engine</v>
+      </c>
+      <c r="E151" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I151" t="str">
+        <v>https://gamebanana.com/projects/35208</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Super Smash Bros. Battle Royale</v>
+      </c>
+      <c r="B152" t="str">
+        <v>NAFEDUDE</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2016-11-05</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E152" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G152" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I152" t="str">
+        <v>https://gamebanana.com/projects/35129</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Sonic vs Yeth</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Chuckles the Modder</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2018-04-08</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E153" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I153" t="str">
+        <v>https://gamebanana.com/projects/35307</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Opposing force HD pack</v>
+      </c>
+      <c r="B154" t="str">
+        <v>OneFreeman</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2018-05-19</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Half-Life: Opposing Force</v>
+      </c>
+      <c r="E154" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G154" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I154" t="str">
+        <v>https://gamebanana.com/projects/35327</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>[Download] Pre-Access</v>
+      </c>
+      <c r="B155" t="str">
+        <v>ST3VI3 RICHI3</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2018-04-23</v>
+      </c>
+      <c r="D155" t="str">
+        <v>The Drift</v>
+      </c>
+      <c r="E155" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G155" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I155" t="str">
+        <v>https://gamebanana.com/projects/35313</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Project: Skinfix</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Soldier_engie-demo</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2018-04-08</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E156" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G156" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I156" t="str">
+        <v>https://gamebanana.com/projects/35306</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Mountain Lab Disaster</v>
+      </c>
+      <c r="B157" t="str">
+        <v>KonataHamster</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2018-04-20</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E157" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G157" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I157" t="str">
+        <v>https://gamebanana.com/projects/35312</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Model Reconstruction</v>
+      </c>
+      <c r="B158" t="str">
+        <v>RevTiva</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2018-02-03</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Goldsource Engine</v>
+      </c>
+      <c r="E158" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G158" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I158" t="str">
+        <v>https://gamebanana.com/projects/35277</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Lightoss stuff</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Ezequiel-TM</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2018-05-10</v>
+      </c>
+      <c r="D159" t="str">
+        <v>M.U.G.E.N</v>
+      </c>
+      <c r="E159" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G159" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I159" t="str">
+        <v>https://gamebanana.com/projects/35322</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Sonic Mania: Master Edition</v>
+      </c>
+      <c r="B160" t="str">
+        <v>ashudowakatsuki</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2017-10-02</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E160" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G160" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I160" t="str">
+        <v>https://gamebanana.com/projects/35224</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Heavy sentry buster gun</v>
+      </c>
+      <c r="B161" t="str">
+        <v>captainpunch</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2018-01-14</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E161" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G161" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I161" t="str">
+        <v>https://gamebanana.com/projects/35266</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Minecraft in Super Mario Maker</v>
+      </c>
+      <c r="B162" t="str">
+        <v>GRAnimated</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2017-12-17</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Super Mario Maker</v>
+      </c>
+      <c r="E162" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G162" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I162" t="str">
+        <v>https://gamebanana.com/projects/35248</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Asurah Reanimation Pack</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Asurah</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2018-01-14</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Fallout: New Vegas</v>
+      </c>
+      <c r="E163" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G163" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I163" t="str">
+        <v>https://gamebanana.com/projects/35267</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>SRB2 Mania</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Michaelmcfly7</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2017-10-19</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E164" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G164" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I164" t="str">
+        <v>https://gamebanana.com/projects/35230</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Counter Strike 2D: Critical Operations Mod</v>
+      </c>
+      <c r="B165" t="str">
+        <v>DraconX</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2017-11-29</v>
+      </c>
+      <c r="D165" t="str">
+        <v>CS2D</v>
+      </c>
+      <c r="E165" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G165" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I165" t="str">
+        <v>https://gamebanana.com/projects/35242</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>2007 TF2 Textures| TFB:Remastered</v>
+      </c>
+      <c r="B166" t="str">
+        <v>gokuman444</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2017-08-16</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E166" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G166" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I166" t="str">
+        <v>https://gamebanana.com/projects/35209</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>my new map mp_fatherland</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Ville88</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2017-12-08</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Call of Duty: World At War</v>
+      </c>
+      <c r="E167" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G167" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I167" t="str">
+        <v>https://gamebanana.com/projects/35244</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Fighters dressin'room</v>
+      </c>
+      <c r="B168" t="str">
+        <v>KTH</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2017-09-23</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E168" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G168" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I168" t="str">
+        <v>https://gamebanana.com/projects/35220</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Sikkmod V1.3 ROE/DOOM3 By IZ0on</v>
+      </c>
+      <c r="B169" t="str">
+        <v>eiion_Extreme</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2017-10-25</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Doom 3</v>
+      </c>
+      <c r="E169" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G169" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I169" t="str">
+        <v>https://gamebanana.com/projects/35232</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Soldier Front 2 : All Weapons Plugin w/ Extra Item</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Ornn</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2017-02-28</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E170" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G170" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I170" t="str">
+        <v>https://gamebanana.com/projects/35158</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Sonic.exe the resistance</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Nikki Asdo</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2017-10-31</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Sonic Mania</v>
+      </c>
+      <c r="E171" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G171" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I171" t="str">
+        <v>https://gamebanana.com/projects/35234</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Tiger Squad vs Black Wolf Crew</v>
+      </c>
+      <c r="B172" t="str">
+        <v>NinjaStalker93</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2017-05-17</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Counter-Strike: Condition Zero</v>
+      </c>
+      <c r="E172" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G172" t="str">
+        <v>Mission Packs</v>
+      </c>
+      <c r="I172" t="str">
+        <v>https://gamebanana.com/projects/35181</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Make your self hd skins to cs 1.6</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Sowa Games</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2017-08-02</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E173" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G173" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I173" t="str">
+        <v>https://gamebanana.com/projects/35202</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Fear Extreme  Mod</v>
+      </c>
+      <c r="B174" t="str">
+        <v>eiion_Extreme</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2017-09-11</v>
+      </c>
+      <c r="D174" t="str">
+        <v>First Encounter Assault Recon</v>
+      </c>
+      <c r="E174" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G174" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I174" t="str">
+        <v>https://gamebanana.com/projects/35217</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>HD Blue Shift</v>
+      </c>
+      <c r="B175" t="str">
+        <v>OneFreeman</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2017-06-24</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Half-Life: Blue Shift</v>
+      </c>
+      <c r="E175" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G175" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I175" t="str">
+        <v>https://gamebanana.com/projects/35191</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>DDLC Repainted</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Kalomaze</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2018-01-17</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Doki Doki Literature Club</v>
+      </c>
+      <c r="E176" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G176" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I176" t="str">
+        <v>https://gamebanana.com/projects/35268</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Post apocalyptic armored vehicle prefab</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Dr.ParadoX</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2016-12-17</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E177" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G177" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I177" t="str">
+        <v>https://gamebanana.com/projects/35141</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>The Galactic Republic/Covenant War Simulation Pack</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Princess Destiny</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2017-11-15</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E178" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G178" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I178" t="str">
+        <v>https://gamebanana.com/projects/35237</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>colored meters with lines</v>
+      </c>
+      <c r="B179" t="str">
+        <v>captainpunch</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2017-12-30</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E179" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G179" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I179" t="str">
+        <v>https://gamebanana.com/projects/35261</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Doom 3 NextGen Extreme Mod v1.0</v>
+      </c>
+      <c r="B180" t="str">
+        <v>eiion_Extreme</v>
+      </c>
+      <c r="C180" t="str">
+        <v>2017-07-26</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Doom 3</v>
+      </c>
+      <c r="E180" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G180" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I180" t="str">
+        <v>https://gamebanana.com/projects/35200</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Project BAP!</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Alaxe</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2017-11-11</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E181" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G181" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I181" t="str">
+        <v>https://gamebanana.com/projects/35236</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>CS:GO AMXX Plugins</v>
+      </c>
+      <c r="B182" t="str">
+        <v>hellmonja</v>
+      </c>
+      <c r="C182" t="str">
+        <v>2017-08-25</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E182" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G182" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I182" t="str">
+        <v>https://gamebanana.com/projects/35214</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Adapting Natch der Untoten to CnC</v>
+      </c>
+      <c r="B183" t="str">
+        <v>qgfruit</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2017-07-12</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Codename CURE</v>
+      </c>
+      <c r="E183" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G183" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I183" t="str">
+        <v>https://gamebanana.com/projects/35196</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Project: Fortress</v>
+      </c>
+      <c r="B184" t="str">
+        <v>[N-Cognito]</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2017-11-27</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E184" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G184" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I184" t="str">
+        <v>https://gamebanana.com/projects/35241</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>RPG Game Project</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Ornn</v>
+      </c>
+      <c r="C185" t="str">
+        <v>2017-08-04</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Unity 3D</v>
+      </c>
+      <c r="E185" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G185" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I185" t="str">
+        <v>https://gamebanana.com/projects/35204</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Super Smash Brothers. Repainted</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Kalomaze</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2016-10-30</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E186" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G186" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I186" t="str">
+        <v>https://gamebanana.com/projects/35124</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Steam AFK Status Reply Tool</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Sneaky.amxx</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2017-04-19</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Steam</v>
+      </c>
+      <c r="E187" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G187" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I187" t="str">
+        <v>https://gamebanana.com/projects/35175</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Source:GO</v>
+      </c>
+      <c r="B188" t="str">
+        <v>RevTiva</v>
+      </c>
+      <c r="C188" t="str">
+        <v>2017-08-21</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E188" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G188" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I188" t="str">
+        <v>https://gamebanana.com/projects/35211</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>[CS:GO] [Map] Minigame [No name yet]</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Koga73</v>
+      </c>
+      <c r="C189" t="str">
+        <v>2016-09-07</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E189" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G189" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I189" t="str">
+        <v>https://gamebanana.com/projects/35103</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>De_3Factory Alpha Alpha</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Antoneeeee</v>
+      </c>
+      <c r="C190" t="str">
+        <v>2017-06-25</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E190" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G190" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I190" t="str">
+        <v>https://gamebanana.com/projects/35193</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Still Alive, Ms. Freeman</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Portalmaker</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2017-04-18</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Portal</v>
+      </c>
+      <c r="E191" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G191" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I191" t="str">
+        <v>https://gamebanana.com/projects/35174</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Mission Kashmir - A mission pack for czero</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Kay_dee!</v>
+      </c>
+      <c r="C192" t="str">
+        <v>2016-10-08</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Counter-Strike: Condition Zero</v>
+      </c>
+      <c r="E192" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G192" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I192" t="str">
+        <v>https://gamebanana.com/projects/35115</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>TF2 Chaos</v>
+      </c>
+      <c r="B193" t="str">
+        <v>SeM.</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2017-04-27</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E193" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G193" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I193" t="str">
+        <v>https://gamebanana.com/projects/35176</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>unnamed mario map (umm...)</v>
+      </c>
+      <c r="B194" t="str">
+        <v>privateeden</v>
+      </c>
+      <c r="C194" t="str">
+        <v>2016-10-30</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Counter-Strike: Global Offensive</v>
+      </c>
+      <c r="E194" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G194" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I194" t="str">
+        <v>https://gamebanana.com/projects/35125</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Project Smash It V1.0</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Brandonator275</v>
+      </c>
+      <c r="C195" t="str">
+        <v>2017-06-25</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Super Smash Bros. (Wii U)</v>
+      </c>
+      <c r="E195" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G195" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I195" t="str">
+        <v>https://gamebanana.com/projects/35192</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Day of Defeat: Source Map</v>
+      </c>
+      <c r="B196" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C196" t="str">
+        <v>2015-10-27</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E196" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G196" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I196" t="str">
+        <v>https://gamebanana.com/projects/35034</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>The Second Mythos</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Alkotok</v>
+      </c>
+      <c r="C197" t="str">
+        <v>2016-09-21</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E197" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G197" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I197" t="str">
+        <v>https://gamebanana.com/projects/35109</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Miniguns</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Auntie Done</v>
+      </c>
+      <c r="C198" t="str">
+        <v>2017-05-10</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Team Fortress 2</v>
+      </c>
+      <c r="E198" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G198" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I198" t="str">
+        <v>https://gamebanana.com/projects/35177</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Hardwood Rifle</v>
+      </c>
+      <c r="B199" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C199" t="str">
+        <v>2017-05-19</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E199" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G199" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I199" t="str">
+        <v>https://gamebanana.com/projects/35183</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Georgian Criminal Role Play</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Grizzly Dev</v>
+      </c>
+      <c r="C200" t="str">
+        <v>2017-04-05</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Grand Theft Auto: San Andreas</v>
+      </c>
+      <c r="E200" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G200" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I200" t="str">
+        <v>https://gamebanana.com/projects/35170</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>dod_LGG_snow</v>
+      </c>
+      <c r="B201" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C201" t="str">
+        <v>2016-11-26</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E201" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G201" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I201" t="str">
+        <v>https://gamebanana.com/projects/35135</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>dod_crip</v>
+      </c>
+      <c r="B202" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C202" t="str">
+        <v>2016-11-07</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E202" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G202" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I202" t="str">
+        <v>https://gamebanana.com/projects/35131</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>de_sköllda_borg</v>
+      </c>
+      <c r="B203" t="str">
+        <v>~Mc3</v>
+      </c>
+      <c r="C203" t="str">
+        <v>2016-11-29</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E203" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G203" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I203" t="str">
+        <v>https://gamebanana.com/projects/35136</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>dod_LGG_2fort</v>
+      </c>
+      <c r="B204" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2016-12-02</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E204" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G204" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I204" t="str">
+        <v>https://gamebanana.com/projects/35139</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>CSGO Features on CS 1.6</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Ornn</v>
+      </c>
+      <c r="C205" t="str">
+        <v>2017-01-16</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E205" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G205" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I205" t="str">
+        <v>https://gamebanana.com/projects/35152</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Weapones</v>
+      </c>
+      <c r="B206" t="str">
+        <v>KolX.1999.rus</v>
+      </c>
+      <c r="C206" t="str">
+        <v>2017-06-28</v>
+      </c>
+      <c r="D206" t="str">
+        <v>ALONE</v>
+      </c>
+      <c r="E206" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G206" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I206" t="str">
+        <v>https://gamebanana.com/projects/35194</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Default Remake CS: Source to CS 1.6</v>
+      </c>
+      <c r="B207" t="str">
+        <v>RevTiva</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2016-12-22</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Counter-Strike 1.6</v>
+      </c>
+      <c r="E207" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G207" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I207" t="str">
+        <v>https://gamebanana.com/projects/35143</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>dod_LGG_kingston</v>
+      </c>
+      <c r="B208" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2016-11-26</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E208" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G208" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I208" t="str">
+        <v>https://gamebanana.com/projects/35134</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>FPS Weapons Pack Retexturing</v>
+      </c>
+      <c r="B209" t="str">
+        <v>KolX.1999.rus</v>
+      </c>
+      <c r="C209" t="str">
+        <v>2017-06-21</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Unreal Engine 4</v>
+      </c>
+      <c r="E209" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G209" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I209" t="str">
+        <v>https://gamebanana.com/projects/35190</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Dead Knights History [Dead Island]</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Grizzly Dev</v>
+      </c>
+      <c r="C210" t="str">
+        <v>2017-05-16</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Unity 3D</v>
+      </c>
+      <c r="E210" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G210" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I210" t="str">
+        <v>https://gamebanana.com/projects/35180</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>dod_LGG_octagon</v>
+      </c>
+      <c r="B211" t="str">
+        <v>KingstonCartel</v>
+      </c>
+      <c r="C211" t="str">
+        <v>2016-12-02</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Day of Defeat: Source</v>
+      </c>
+      <c r="E211" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G211" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I211" t="str">
+        <v>https://gamebanana.com/projects/35138</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Visit Source</v>
+      </c>
+      <c r="B212" t="str">
+        <v>RevTiva</v>
+      </c>
+      <c r="C212" t="str">
+        <v>2017-02-06</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E212" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G212" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I212" t="str">
+        <v>https://gamebanana.com/projects/35154</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Drone</v>
+      </c>
+      <c r="B213" t="str">
+        <v>tonline_kms65</v>
+      </c>
+      <c r="C213" t="str">
+        <v>2016-06-16</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Counter-Strike: Source</v>
+      </c>
+      <c r="E213" t="str">
+        <v>PC</v>
+      </c>
+      <c r="G213" t="str">
+        <v>Other/Misc</v>
+      </c>
+      <c r="I213" t="str">
+        <v>https://gamebanana.com/projects/35074</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Turbo + Impotent Guards</v>
+      </c>
+      <c r="B214" t="str">
+        <v>tim</v>
+      </c>
+      <c r="C214" t="str">
+        <v>1998</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Bagman</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Arcade</v>
+      </c>
+      <c r="G214" t="str">
+        <v>speedup</v>
+      </c>
+      <c r="H214" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I214" t="str">
         <v>http://www.arcadecollecting.com/hacks/bagman/</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Crazy Climber Fixes</v>
+      </c>
+      <c r="B215" t="str">
+        <v>tim</v>
+      </c>
+      <c r="C215" t="str">
+        <v>13 July 2002</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Crazy Climber</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Arcade</v>
+      </c>
+      <c r="G215" t="str">
+        <v>fixes</v>
+      </c>
+      <c r="H215" t="b">
+        <v>1</v>
+      </c>
+      <c r="I215" t="str">
+        <v>http://www.arcadecollecting.com/crazy/cchack/</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Make Traxe Turbo</v>
+      </c>
+      <c r="B216" t="str">
+        <v>tim</v>
+      </c>
+      <c r="C216" t="str">
+        <v>7 October 2003</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Make Trax</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Arcade</v>
+      </c>
+      <c r="G216" t="str">
+        <v>speedup</v>
+      </c>
+      <c r="H216" t="b">
+        <v>1</v>
+      </c>
+      <c r="I216" t="str">
+        <v>http://www.arcadecollecting.com/hacks/maketrax/</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Tron Freeplay</v>
+      </c>
+      <c r="B217" t="str">
+        <v>tim</v>
+      </c>
+      <c r="C217" t="str">
+        <v>6 October 2003</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Tron</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Arcade</v>
+      </c>
+      <c r="G217" t="str">
+        <v>freeplay</v>
+      </c>
+      <c r="H217" t="b">
+        <v>1</v>
+      </c>
+      <c r="I217" t="str">
+        <v>http://www.arcadecollecting.com/hacks/tron/</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Super Mario 128</v>
+      </c>
+      <c r="B218" t="str">
+        <v>RJWaters2</v>
+      </c>
+      <c r="C218" t="str">
+        <v>May 9, 2008</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Super Mario 64</v>
+      </c>
+      <c r="E218" t="str">
+        <v>N64</v>
+      </c>
+      <c r="G218" t="str">
+        <v>Gameplay</v>
+      </c>
+      <c r="H218" t="b">
+        <v>1</v>
+      </c>
+      <c r="I218" t="str">
+        <v>https://www.youtube.com/watch?v=xeX36Hd59GQ</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I218"/>
   </ignoredErrors>
 </worksheet>
 </file>